--- a/3_consistency_tests/table_s3_consistency_test_results.xlsx
+++ b/3_consistency_tests/table_s3_consistency_test_results.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Trycycler/Paper_GitHub_repo/3_consistency_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9AF488-F8F3-5D42-92C7-59B42F0FF529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEB8BFF-BDE0-EE46-A940-ED4CBEA7B3E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="-25360" windowWidth="32000" windowHeight="18200" xr2:uid="{47520A07-41C4-A945-98BF-A12838741A71}"/>
+    <workbookView xWindow="-5440" yWindow="-26560" windowWidth="32000" windowHeight="18200" xr2:uid="{47520A07-41C4-A945-98BF-A12838741A71}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet descriptions" sheetId="2" r:id="rId1"/>
     <sheet name="Matrix" sheetId="1" r:id="rId2"/>
     <sheet name="Trycycler vs Trycycler" sheetId="3" r:id="rId3"/>
     <sheet name="Other vs other" sheetId="5" r:id="rId4"/>
-    <sheet name="Tester assemblers used" sheetId="6" r:id="rId5"/>
+    <sheet name="Tester assemblers" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -423,7 +423,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    the author of Trycycler</t>
+    the Trycycler developer</t>
       </text>
     </comment>
   </commentList>
@@ -867,6 +867,9 @@
     <t>4× Flye, 4× Miniasm/Minipolish, 4× Raven</t>
   </si>
   <si>
+    <t>3× Flye, 3× Miniasm/Minipolish, 3× Raven</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">The </t>
     </r>
@@ -879,7 +882,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Tester assemblers used</t>
+      <t>Tester assemblers</t>
     </r>
     <r>
       <rPr>
@@ -891,9 +894,6 @@
       </rPr>
       <t xml:space="preserve"> worksheet shows which assemblers the Trycycler testers used to generate the input assemblies for Trycycler.</t>
     </r>
-  </si>
-  <si>
-    <t>3× Flye, 3× Miniasm/Minipolish, 3× Raven</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1806,7 @@
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2021-01-20T02:08:35.15" personId="{CBA66986-4746-7943-A9A3-A6D61178CC74}" id="{E64E296C-05EC-B448-95E0-17041CF6E7D5}">
-    <text>the author of Trycycler</text>
+    <text>the Trycycler developer</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="7" spans="1:1" ht="44" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" ht="44" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8766,7 +8766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F523D0-732D-5F40-A24A-A2A97F9AE187}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8816,7 +8818,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
